--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_15-35.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_15-35.xlsx
@@ -206,6 +206,9 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
+    <t>20:0</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -222,9 +225,6 @@
   </si>
   <si>
     <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>20:0</t>
   </si>
   <si>
     <t>مناديل سولو سحب</t>
@@ -1898,7 +1898,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -1916,7 +1916,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1924,7 +1924,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -1942,7 +1942,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1950,7 +1950,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -1968,7 +1968,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1994,7 +1994,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2002,7 +2002,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
